--- a/testdata/接口用例.xlsx
+++ b/testdata/接口用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7515" tabRatio="380" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="20145" windowHeight="7515" tabRatio="380" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="登录" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>{"code":0,"msg":"","brand": "宝马"}</t>
   </si>
   <si>
-    <t>超过10个字符内容</t>
+    <t>超过10个字符内容1</t>
   </si>
   <si>
     <t>{"text": "大众 constellation 440马力 6X4 牵引车"}</t>
@@ -542,10 +542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -588,21 +588,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -618,11 +603,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,9 +619,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,46 +651,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,6 +677,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -726,7 +702,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,31 +741,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,54 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +831,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -925,6 +883,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -935,41 +935,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,17 +955,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,6 +991,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1040,10 +1040,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1052,133 +1052,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3239,7 +3239,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
